--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -942,6 +942,71 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationFeeScoreCategory_CS"/&gt;
+  &lt;code value="medication"/&gt;
+  &lt;display value="投薬"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x]</t>
@@ -1440,31 +1505,6 @@
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -1635,15 +1675,6 @@
   </si>
   <si>
     <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.dose</t>
@@ -2055,7 +2086,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7480,7 +7511,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>86</v>
@@ -7492,20 +7523,18 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7530,32 +7559,34 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7564,19 +7595,19 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7584,20 +7615,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7606,19 +7635,19 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7644,55 +7673,55 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7700,7 +7729,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7708,10 +7737,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7723,18 +7752,20 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7743,7 +7774,7 @@
         <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
@@ -7782,13 +7813,13 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
@@ -7797,16 +7828,16 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7814,7 +7845,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7834,21 +7865,23 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7896,7 +7929,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7911,16 +7944,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7928,7 +7961,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7936,10 +7969,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7948,19 +7981,19 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7986,37 +8019,35 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
@@ -8025,16 +8056,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8042,9 +8073,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8065,16 +8098,16 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8100,13 +8133,13 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>78</v>
@@ -8124,7 +8157,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>86</v>
@@ -8139,16 +8172,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8156,7 +8189,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8164,10 +8197,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8179,15 +8212,17 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8236,13 +8271,13 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -8251,16 +8286,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8268,7 +8303,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8291,15 +8326,17 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8348,7 +8385,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8360,19 +8397,19 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8380,11 +8417,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8403,16 +8440,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>159</v>
+        <v>336</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8462,7 +8499,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8474,16 +8511,16 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8494,43 +8531,41 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8578,31 +8613,31 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>360</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8610,7 +8645,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8621,7 +8656,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8630,16 +8665,16 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8666,13 +8701,13 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>78</v>
@@ -8690,13 +8725,13 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
@@ -8705,16 +8740,16 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8722,7 +8757,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8730,7 +8765,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
@@ -8742,16 +8777,16 @@
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>367</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>368</v>
+        <v>179</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8802,10 +8837,10 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -8814,13 +8849,13 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8834,11 +8869,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8857,15 +8892,17 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>372</v>
+        <v>183</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8890,13 +8927,13 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -8914,7 +8951,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>371</v>
+        <v>186</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8926,19 +8963,19 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>377</v>
+        <v>181</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8946,11 +8983,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8963,24 +9000,26 @@
         <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>380</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9028,7 +9067,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9040,27 +9079,27 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>385</v>
+        <v>129</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9083,20 +9122,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>389</v>
+        <v>198</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9120,13 +9155,13 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9144,7 +9179,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9159,16 +9194,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9176,7 +9211,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9184,10 +9219,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9196,20 +9231,18 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9258,13 +9291,13 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -9273,16 +9306,16 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9290,7 +9323,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9313,17 +9346,15 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>404</v>
+        <v>198</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9348,13 +9379,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -9372,7 +9403,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9387,16 +9418,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9404,7 +9435,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9415,7 +9446,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9427,15 +9458,17 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9484,39 +9517,39 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>413</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9539,16 +9572,20 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>177</v>
+        <v>409</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>178</v>
+        <v>410</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9596,7 +9633,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>180</v>
+        <v>408</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9608,19 +9645,19 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>181</v>
+        <v>415</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9628,11 +9665,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9651,16 +9688,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>418</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>419</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>184</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>159</v>
+        <v>336</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9710,7 +9747,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>186</v>
+        <v>417</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9722,19 +9759,19 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9742,11 +9779,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9759,26 +9796,24 @@
         <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9826,7 +9861,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9838,13 +9873,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9858,7 +9893,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9881,13 +9916,13 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9938,7 +9973,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9950,13 +9985,13 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>433</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -9970,7 +10005,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9993,17 +10028,15 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -10028,11 +10061,13 @@
         <v>78</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>78</v>
@@ -10050,7 +10085,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>422</v>
+        <v>180</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10062,19 +10097,19 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>427</v>
+        <v>181</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10082,18 +10117,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10105,16 +10140,16 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>430</v>
+        <v>183</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
+        <v>184</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10140,11 +10175,13 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
@@ -10162,31 +10199,31 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>429</v>
+        <v>186</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>433</v>
+        <v>181</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10194,42 +10231,42 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>437</v>
+        <v>159</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10254,13 +10291,13 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -10278,31 +10315,31 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>441</v>
+        <v>129</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10310,7 +10347,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10336,10 +10373,10 @@
         <v>177</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>179</v>
+        <v>440</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10390,7 +10427,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>180</v>
+        <v>438</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10402,13 +10439,13 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>181</v>
+        <v>441</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
@@ -10422,18 +10459,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10445,16 +10482,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>183</v>
+        <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>184</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10480,55 +10517,53 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>186</v>
+        <v>442</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10536,7 +10571,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10547,7 +10582,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10556,23 +10591,21 @@
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10596,35 +10629,35 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -10636,13 +10669,13 @@
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10650,11 +10683,9 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10672,13 +10703,13 @@
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>456</v>
@@ -10712,11 +10743,13 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
@@ -10734,13 +10767,13 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -10752,13 +10785,13 @@
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10766,7 +10799,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10878,7 +10911,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10992,7 +11025,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11000,10 +11033,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11015,26 +11048,26 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>463</v>
+        <v>301</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>464</v>
+        <v>302</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>465</v>
+        <v>303</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>466</v>
+        <v>304</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>78</v>
@@ -11064,25 +11097,23 @@
         <v>78</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>468</v>
+        <v>306</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
@@ -11094,13 +11125,13 @@
         <v>78</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>469</v>
+        <v>307</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>470</v>
+        <v>308</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11108,9 +11139,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11131,18 +11164,20 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11166,13 +11201,11 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11190,13 +11223,13 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>475</v>
+        <v>306</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
@@ -11208,13 +11241,13 @@
         <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>476</v>
+        <v>307</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>477</v>
+        <v>308</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11222,7 +11255,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11242,21 +11275,19 @@
         <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>479</v>
+        <v>178</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11304,7 +11335,7 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>482</v>
+        <v>180</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
@@ -11316,19 +11347,19 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>483</v>
+        <v>181</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11336,18 +11367,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11356,21 +11387,21 @@
         <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>486</v>
+        <v>183</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11406,43 +11437,43 @@
         <v>78</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>489</v>
+        <v>186</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11450,7 +11481,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11458,7 +11489,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>86</v>
@@ -11473,26 +11504,26 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>78</v>
+        <v>479</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>78</v>
@@ -11534,7 +11565,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11552,13 +11583,13 @@
         <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11566,11 +11597,9 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11591,20 +11620,18 @@
         <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>446</v>
+        <v>177</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11628,11 +11655,13 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>504</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11650,13 +11679,13 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
@@ -11668,13 +11697,13 @@
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11682,7 +11711,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11702,19 +11731,21 @@
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>178</v>
+        <v>491</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>179</v>
+        <v>492</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11762,7 +11793,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>180</v>
+        <v>494</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -11774,19 +11805,19 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>181</v>
+        <v>495</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11794,18 +11825,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -11814,21 +11845,21 @@
         <v>78</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>183</v>
+        <v>498</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11864,43 +11895,43 @@
         <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>186</v>
+        <v>501</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>181</v>
+        <v>502</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>78</v>
+        <v>503</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -11908,7 +11939,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11916,7 +11947,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>86</v>
@@ -11931,26 +11962,26 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>100</v>
+        <v>505</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>78</v>
@@ -11992,7 +12023,7 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12010,13 +12041,13 @@
         <v>78</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12024,9 +12055,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12047,18 +12080,20 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12082,13 +12117,11 @@
         <v>78</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>78</v>
+        <v>516</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>78</v>
@@ -12106,13 +12139,13 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>475</v>
+        <v>306</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
@@ -12124,13 +12157,13 @@
         <v>78</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>476</v>
+        <v>307</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>477</v>
+        <v>308</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12138,7 +12171,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12158,21 +12191,19 @@
         <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>479</v>
+        <v>178</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12220,7 +12251,7 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>482</v>
+        <v>180</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
@@ -12232,19 +12263,19 @@
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>483</v>
+        <v>181</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12252,18 +12283,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12272,21 +12303,21 @@
         <v>78</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>486</v>
+        <v>183</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12322,43 +12353,43 @@
         <v>78</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>489</v>
+        <v>186</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>490</v>
+        <v>181</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12366,7 +12397,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12374,7 +12405,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>86</v>
@@ -12389,26 +12420,26 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>78</v>
@@ -12450,7 +12481,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
@@ -12468,13 +12499,13 @@
         <v>78</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12482,7 +12513,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12508,17 +12539,15 @@
         <v>177</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12566,7 +12595,7 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12584,13 +12613,13 @@
         <v>78</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12598,7 +12627,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12618,21 +12647,21 @@
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>515</v>
+        <v>106</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>78</v>
       </c>
@@ -12680,7 +12709,7 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12689,22 +12718,22 @@
         <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>519</v>
+        <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -12712,7 +12741,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12732,21 +12761,21 @@
         <v>78</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>523</v>
+        <v>177</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12782,17 +12811,19 @@
         <v>78</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AB94" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -12810,13 +12841,13 @@
         <v>78</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -12824,11 +12855,9 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>78</v>
       </c>
@@ -12846,21 +12875,23 @@
         <v>78</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>78</v>
       </c>
@@ -12908,7 +12939,7 @@
         <v>78</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -12917,22 +12948,22 @@
         <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>533</v>
+        <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>129</v>
+        <v>512</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -12940,11 +12971,9 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
         <v>78</v>
       </c>
@@ -12962,21 +12991,23 @@
         <v>78</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13024,7 +13055,7 @@
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>522</v>
+        <v>314</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13033,22 +13064,22 @@
         <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>519</v>
+        <v>98</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>520</v>
+        <v>315</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>521</v>
+        <v>316</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13056,7 +13087,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13067,7 +13098,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13079,16 +13110,16 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13138,33 +13169,491 @@
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AB98" s="2"/>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J99" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AF97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG97" t="s" s="2">
+      <c r="K99" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI97" t="s" s="2">
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AJ101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>78</v>
       </c>
     </row>
